--- a/src/excel/committee.xlsx
+++ b/src/excel/committee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21000" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="308">
   <si>
     <t>number</t>
   </si>
@@ -489,10 +489,6 @@
     <t>S.594</t>
   </si>
   <si>
-    <t xml:space="preserve">Senate Homeland Security and Governmental Affairs
-</t>
-  </si>
-  <si>
     <t>12/04/2018</t>
   </si>
   <si>
@@ -957,10 +953,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -996,43 +992,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,15 +1000,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,15 +1029,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,7 +1060,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,7 +1075,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1138,6 +1111,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1148,13 +1144,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1166,13 +1162,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,25 +1204,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,7 +1222,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,103 +1318,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,6 +1451,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1464,17 +1475,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1505,26 +1510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1560,10 +1556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1572,133 +1568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2108,9 +2104,9 @@
   <dimension ref="A1:D1759"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A920" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1013" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C905" sqref="C905:C924"/>
+      <selection pane="bottomLeft" activeCell="B1016" sqref="B1016:B1018"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -8752,27 +8748,27 @@
       <c r="C1014" s="12"/>
       <c r="D1014" s="12"/>
     </row>
-    <row r="1015" ht="14.4" spans="1:4">
+    <row r="1015" spans="1:4">
       <c r="A1015" s="12"/>
       <c r="B1015" s="12"/>
       <c r="C1015" s="12"/>
       <c r="D1015" s="12"/>
     </row>
-    <row r="1016" ht="14.4" spans="1:4">
+    <row r="1016" spans="1:4">
       <c r="A1016" s="12" t="s">
         <v>154</v>
       </c>
       <c r="B1016" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1016" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C1016" s="12" t="s">
+      <c r="D1016" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D1016" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="1017" ht="14.4" spans="1:4">
+    </row>
+    <row r="1017" spans="1:4">
       <c r="A1017" s="12"/>
       <c r="B1017" s="12"/>
       <c r="C1017" s="12"/>
@@ -8794,7 +8790,7 @@
     </row>
     <row r="1020" spans="1:4">
       <c r="A1020" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1020" s="11" t="s">
         <v>65</v>
@@ -8804,17 +8800,17 @@
     </row>
     <row r="1021" spans="1:4">
       <c r="A1021" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1021" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="B1021" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="C1021" s="11"/>
       <c r="D1021" s="11"/>
     </row>
     <row r="1022" spans="1:4">
       <c r="A1022" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1022" s="11" t="s">
         <v>45</v>
@@ -8832,16 +8828,16 @@
     </row>
     <row r="1024" ht="14.4" spans="1:4">
       <c r="A1024" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1024" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C1024" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1024" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="D1024" s="12" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="1025" ht="14.4" spans="1:4">
@@ -8858,30 +8854,30 @@
     </row>
     <row r="1027" spans="1:4">
       <c r="A1027" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1027" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C1027" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1027" s="11" t="s">
         <v>166</v>
-      </c>
-      <c r="D1027" s="11" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="1028" ht="14.4" spans="1:4">
       <c r="A1028" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1028" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C1028" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1028" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="D1028" s="12" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="1029" ht="14.4" spans="1:4">
@@ -8899,17 +8895,17 @@
     <row r="1031" spans="1:4">
       <c r="A1031" s="12"/>
       <c r="B1031" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1031" s="13"/>
       <c r="D1031" s="13"/>
     </row>
     <row r="1032" spans="1:4">
       <c r="A1032" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1032" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1032" s="11"/>
       <c r="D1032" s="11"/>
@@ -8934,10 +8930,10 @@
     </row>
     <row r="1036" spans="1:4">
       <c r="A1036" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1036" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1036" s="11"/>
       <c r="D1036" s="11"/>
@@ -8962,16 +8958,16 @@
     </row>
     <row r="1040" ht="14.4" spans="1:4">
       <c r="A1040" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1040" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C1040" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1040" s="12" t="s">
         <v>175</v>
-      </c>
-      <c r="D1040" s="12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="1041" ht="14.4" spans="1:4">
@@ -8988,7 +8984,7 @@
     </row>
     <row r="1043" spans="1:4">
       <c r="A1043" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1043" s="11" t="s">
         <v>45</v>
@@ -8998,7 +8994,7 @@
     </row>
     <row r="1044" spans="1:4">
       <c r="A1044" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1044" s="11" t="s">
         <v>50</v>
@@ -9008,36 +9004,36 @@
     </row>
     <row r="1045" spans="1:4">
       <c r="A1045" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1045" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1045" s="11"/>
       <c r="D1045" s="11"/>
     </row>
     <row r="1046" spans="1:4">
       <c r="A1046" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1046" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="B1046" s="11" t="s">
-        <v>181</v>
       </c>
       <c r="C1046" s="11"/>
       <c r="D1046" s="11"/>
     </row>
     <row r="1047" ht="14.4" spans="1:4">
       <c r="A1047" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1047" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C1047" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1047" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="D1047" s="12" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="1048" ht="14.4" spans="1:4">
@@ -9054,7 +9050,7 @@
     </row>
     <row r="1050" spans="1:4">
       <c r="A1050" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1050" s="11" t="s">
         <v>135</v>
@@ -9064,7 +9060,7 @@
     </row>
     <row r="1051" spans="1:4">
       <c r="A1051" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1051" s="11" t="s">
         <v>45</v>
@@ -9074,7 +9070,7 @@
     </row>
     <row r="1052" spans="1:4">
       <c r="A1052" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1052" s="11" t="s">
         <v>135</v>
@@ -9084,17 +9080,17 @@
     </row>
     <row r="1053" spans="1:4">
       <c r="A1053" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1053" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="B1053" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="C1053" s="11"/>
       <c r="D1053" s="11"/>
     </row>
     <row r="1054" spans="1:4">
       <c r="A1054" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1054" s="11" t="s">
         <v>45</v>
@@ -9104,7 +9100,7 @@
     </row>
     <row r="1055" spans="1:4">
       <c r="A1055" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1055" s="11" t="s">
         <v>135</v>
@@ -9114,7 +9110,7 @@
     </row>
     <row r="1056" spans="1:4">
       <c r="A1056" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1056" s="11" t="s">
         <v>135</v>
@@ -9124,16 +9120,16 @@
     </row>
     <row r="1057" ht="14.4" spans="1:4">
       <c r="A1057" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1057" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C1057" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1057" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="D1057" s="12" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="1058" ht="14.4" spans="1:4">
@@ -9156,7 +9152,7 @@
     </row>
     <row r="1061" spans="1:4">
       <c r="A1061" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1061" s="11" t="s">
         <v>55</v>
@@ -9166,7 +9162,7 @@
     </row>
     <row r="1062" spans="1:4">
       <c r="A1062" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1062" s="11" t="s">
         <v>45</v>
@@ -9176,7 +9172,7 @@
     </row>
     <row r="1063" spans="1:4">
       <c r="A1063" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1063" s="11" t="s">
         <v>135</v>
@@ -9186,7 +9182,7 @@
     </row>
     <row r="1064" spans="1:4">
       <c r="A1064" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1064" s="11" t="s">
         <v>153</v>
@@ -9196,17 +9192,17 @@
     </row>
     <row r="1065" spans="1:4">
       <c r="A1065" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1065" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="B1065" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="C1065" s="11"/>
       <c r="D1065" s="11"/>
     </row>
     <row r="1066" spans="1:4">
       <c r="A1066" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1066" s="11" t="s">
         <v>153</v>
@@ -9216,7 +9212,7 @@
     </row>
     <row r="1067" spans="1:4">
       <c r="A1067" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1067" s="11" t="s">
         <v>151</v>
@@ -9226,7 +9222,7 @@
     </row>
     <row r="1068" spans="1:4">
       <c r="A1068" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1068" s="11" t="s">
         <v>135</v>
@@ -9236,21 +9232,21 @@
     </row>
     <row r="1069" spans="1:4">
       <c r="A1069" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1069" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1069" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="B1069" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1069" s="11" t="s">
+      <c r="D1069" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="D1069" s="11" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="1070" spans="1:4">
       <c r="A1070" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1070" s="11" t="s">
         <v>153</v>
@@ -9260,16 +9256,16 @@
     </row>
     <row r="1071" ht="14.4" spans="1:4">
       <c r="A1071" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1071" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C1071" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1071" s="12" t="s">
         <v>210</v>
-      </c>
-      <c r="D1071" s="12" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="1072" ht="14.4" spans="1:4">
@@ -9292,10 +9288,10 @@
     </row>
     <row r="1075" spans="1:4">
       <c r="A1075" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1075" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1075" s="11"/>
       <c r="D1075" s="11"/>
@@ -9320,7 +9316,7 @@
     </row>
     <row r="1079" spans="1:4">
       <c r="A1079" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1079" s="11" t="s">
         <v>65</v>
@@ -9330,7 +9326,7 @@
     </row>
     <row r="1080" spans="1:4">
       <c r="A1080" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1080" s="11" t="s">
         <v>153</v>
@@ -9340,7 +9336,7 @@
     </row>
     <row r="1081" spans="1:4">
       <c r="A1081" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1081" s="12" t="s">
         <v>50</v>
@@ -9356,27 +9352,27 @@
     </row>
     <row r="1083" spans="1:4">
       <c r="A1083" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1083" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1083" s="11"/>
       <c r="D1083" s="11"/>
     </row>
     <row r="1084" spans="1:4">
       <c r="A1084" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1084" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="B1084" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="C1084" s="11"/>
       <c r="D1084" s="11"/>
     </row>
     <row r="1085" spans="1:4">
       <c r="A1085" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1085" s="11" t="s">
         <v>65</v>
@@ -9386,7 +9382,7 @@
     </row>
     <row r="1086" spans="1:4">
       <c r="A1086" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1086" s="11" t="s">
         <v>135</v>
@@ -9396,10 +9392,10 @@
     </row>
     <row r="1087" ht="14.4" spans="1:4">
       <c r="A1087" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1087" s="12" t="s">
         <v>220</v>
-      </c>
-      <c r="B1087" s="12" t="s">
-        <v>221</v>
       </c>
       <c r="C1087" s="12"/>
       <c r="D1087" s="12"/>
@@ -9436,10 +9432,10 @@
     </row>
     <row r="1093" ht="14.4" spans="1:4">
       <c r="A1093" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1093" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1093" s="12"/>
       <c r="D1093" s="12"/>
@@ -9518,7 +9514,7 @@
     </row>
     <row r="1106" ht="14.4" spans="1:4">
       <c r="A1106" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1106" s="12" t="s">
         <v>153</v>
@@ -9570,7 +9566,7 @@
     </row>
     <row r="1114" ht="14.4" spans="1:4">
       <c r="A1114" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1114" s="12" t="s">
         <v>50</v>
@@ -9592,10 +9588,10 @@
     </row>
     <row r="1117" ht="14.4" spans="1:4">
       <c r="A1117" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B1117" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1117" s="12"/>
       <c r="D1117" s="12"/>
@@ -9626,7 +9622,7 @@
     </row>
     <row r="1122" ht="14.4" spans="1:4">
       <c r="A1122" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B1122" s="12" t="s">
         <v>45</v>
@@ -9714,17 +9710,17 @@
     </row>
     <row r="1136" spans="1:4">
       <c r="A1136" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1136" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1136" s="11"/>
       <c r="D1136" s="11"/>
     </row>
     <row r="1137" spans="1:4">
       <c r="A1137" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1137" s="11" t="s">
         <v>45</v>
@@ -9734,7 +9730,7 @@
     </row>
     <row r="1138" spans="1:4">
       <c r="A1138" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1138" s="17" t="s">
         <v>153</v>
@@ -9744,7 +9740,7 @@
     </row>
     <row r="1139" spans="1:4">
       <c r="A1139" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1139" s="17" t="s">
         <v>153</v>
@@ -9754,10 +9750,10 @@
     </row>
     <row r="1140" ht="14.4" spans="1:4">
       <c r="A1140" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1140" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1140" s="12"/>
       <c r="D1140" s="12"/>
@@ -9794,16 +9790,16 @@
     </row>
     <row r="1146" ht="13.5" customHeight="1" spans="1:4">
       <c r="A1146" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1146" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C1146" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1146" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="D1146" s="12" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="1147" ht="13.5" customHeight="1" spans="1:4">
@@ -9844,16 +9840,16 @@
     </row>
     <row r="1152" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1152" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1152" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C1152" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1152" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="D1152" s="12" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="1153" ht="13.5" customHeight="1" spans="1:4">
@@ -9894,7 +9890,7 @@
     </row>
     <row r="1159" ht="14.4" spans="1:4">
       <c r="A1159" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1159" s="12" t="s">
         <v>50</v>
@@ -10036,7 +10032,7 @@
     </row>
     <row r="1182" ht="14.4" spans="1:4">
       <c r="A1182" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1182" s="12" t="s">
         <v>50</v>
@@ -10142,10 +10138,10 @@
     </row>
     <row r="1199" ht="14.4" spans="1:4">
       <c r="A1199" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1199" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1199" s="12"/>
       <c r="D1199" s="12"/>
@@ -10230,7 +10226,7 @@
     </row>
     <row r="1213" ht="14.4" spans="1:4">
       <c r="A1213" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1213" s="12" t="s">
         <v>45</v>
@@ -10276,7 +10272,7 @@
     </row>
     <row r="1220" ht="14.4" spans="1:4">
       <c r="A1220" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1220" s="12" t="s">
         <v>55</v>
@@ -10305,7 +10301,7 @@
     <row r="1224" ht="14.4" spans="1:4">
       <c r="A1224" s="16"/>
       <c r="B1224" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1224" s="12"/>
       <c r="D1224" s="12"/>
@@ -10336,7 +10332,7 @@
     </row>
     <row r="1229" ht="14.4" spans="1:4">
       <c r="A1229" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1229" s="12" t="s">
         <v>55</v>
@@ -10402,7 +10398,7 @@
     </row>
     <row r="1239" ht="14.4" spans="1:4">
       <c r="A1239" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1239" s="12" t="s">
         <v>45</v>
@@ -10472,7 +10468,7 @@
     </row>
     <row r="1250" ht="14.4" spans="1:4">
       <c r="A1250" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1250" s="12" t="s">
         <v>45</v>
@@ -10674,7 +10670,7 @@
     </row>
     <row r="1283" ht="14.4" spans="1:4">
       <c r="A1283" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1283" s="12" t="s">
         <v>55</v>
@@ -10810,7 +10806,7 @@
     </row>
     <row r="1305" spans="1:4">
       <c r="A1305" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1305" s="17" t="s">
         <v>153</v>
@@ -10820,16 +10816,16 @@
     </row>
     <row r="1306" ht="13.5" customHeight="1" spans="1:4">
       <c r="A1306" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1306" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C1306" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1306" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="D1306" s="12" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="1307" ht="13.5" customHeight="1" spans="1:4">
@@ -10904,10 +10900,10 @@
         <v>50</v>
       </c>
       <c r="C1318" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1318" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="D1318" s="12" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="1319" ht="13.5" customHeight="1" spans="1:4">
@@ -10954,7 +10950,7 @@
     </row>
     <row r="1326" ht="14.4" spans="1:4">
       <c r="A1326" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1326" s="12" t="s">
         <v>135</v>
@@ -10988,7 +10984,7 @@
     </row>
     <row r="1331" ht="14.4" spans="1:4">
       <c r="A1331" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1331" s="12" t="s">
         <v>45</v>
@@ -11016,7 +11012,7 @@
     </row>
     <row r="1335" ht="14.4" spans="1:4">
       <c r="A1335" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1335" s="12" t="s">
         <v>45</v>
@@ -11050,7 +11046,7 @@
     </row>
     <row r="1340" ht="14.4" spans="1:4">
       <c r="A1340" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B1340" s="12" t="s">
         <v>151</v>
@@ -11090,7 +11086,7 @@
     </row>
     <row r="1346" ht="14.4" spans="1:4">
       <c r="A1346" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1346" s="12"/>
       <c r="C1346" s="12"/>
@@ -11242,10 +11238,10 @@
     </row>
     <row r="1371" ht="14.4" spans="1:4">
       <c r="A1371" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1371" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1371" s="12"/>
       <c r="D1371" s="12"/>
@@ -11342,7 +11338,7 @@
     </row>
     <row r="1387" ht="14.4" spans="1:4">
       <c r="A1387" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B1387" s="12" t="s">
         <v>65</v>
@@ -11406,16 +11402,16 @@
     </row>
     <row r="1397" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1397" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1397" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C1397" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1397" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="D1397" s="12" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="1398" ht="13.5" customHeight="1" spans="1:4">
@@ -11450,10 +11446,10 @@
     </row>
     <row r="1403" ht="13.5" customHeight="1" spans="1:4">
       <c r="A1403" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1403" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1403" s="12"/>
       <c r="D1403" s="17"/>
@@ -11496,10 +11492,10 @@
     </row>
     <row r="1410" ht="14.4" spans="1:4">
       <c r="A1410" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1410" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C1410" s="12"/>
       <c r="D1410" s="12"/>
@@ -11512,7 +11508,7 @@
     </row>
     <row r="1412" ht="14.4" spans="1:4">
       <c r="A1412" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1412" s="12" t="s">
         <v>50</v>
@@ -11660,7 +11656,7 @@
     </row>
     <row r="1436" ht="14.4" spans="1:4">
       <c r="A1436" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1436" s="12" t="s">
         <v>50</v>
@@ -11694,7 +11690,7 @@
     </row>
     <row r="1441" ht="14.4" spans="1:4">
       <c r="A1441" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1441" s="12" t="s">
         <v>55</v>
@@ -11728,10 +11724,10 @@
     </row>
     <row r="1446" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1446" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1446" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1446" s="12"/>
       <c r="D1446" s="12"/>
@@ -11762,10 +11758,10 @@
     </row>
     <row r="1451" ht="14.4" spans="1:4">
       <c r="A1451" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1451" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="B1451" s="12" t="s">
-        <v>270</v>
       </c>
       <c r="C1451" s="12"/>
       <c r="D1451" s="12"/>
@@ -11778,7 +11774,7 @@
     </row>
     <row r="1453" ht="14.4" spans="1:4">
       <c r="A1453" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1453" s="12" t="s">
         <v>135</v>
@@ -11890,10 +11886,10 @@
     </row>
     <row r="1471" ht="14.4" spans="1:4">
       <c r="A1471" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1471" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="B1471" s="12" t="s">
-        <v>273</v>
       </c>
       <c r="C1471" s="12"/>
       <c r="D1471" s="12"/>
@@ -11906,7 +11902,7 @@
     </row>
     <row r="1473" spans="1:4">
       <c r="A1473" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1473" s="11" t="s">
         <v>153</v>
@@ -11916,7 +11912,7 @@
     </row>
     <row r="1474" ht="14.4" spans="1:4">
       <c r="A1474" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1474" s="12" t="s">
         <v>135</v>
@@ -12070,16 +12066,16 @@
     </row>
     <row r="1499" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1499" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1499" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1499" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B1499" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1499" s="12" t="s">
+      <c r="D1499" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="D1499" s="12" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="1500" ht="13.5" customHeight="1" spans="1:4">
@@ -12114,7 +12110,7 @@
     </row>
     <row r="1505" ht="14.4" spans="1:4">
       <c r="A1505" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B1505" s="12" t="s">
         <v>65</v>
@@ -12160,7 +12156,7 @@
     </row>
     <row r="1512" ht="14.4" spans="1:4">
       <c r="A1512" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1512" s="12" t="s">
         <v>45</v>
@@ -12218,7 +12214,7 @@
     </row>
     <row r="1521" spans="1:4">
       <c r="A1521" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1521" s="11" t="s">
         <v>45</v>
@@ -12228,16 +12224,16 @@
     </row>
     <row r="1522" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1522" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B1522" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C1522" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1522" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="1523" ht="14.4" spans="1:4">
@@ -12260,7 +12256,7 @@
     </row>
     <row r="1526" spans="1:4">
       <c r="A1526" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1526" s="12"/>
       <c r="C1526" s="12"/>
@@ -12268,10 +12264,10 @@
     </row>
     <row r="1527" ht="14.4" spans="1:4">
       <c r="A1527" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B1527" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1527" s="12"/>
       <c r="D1527" s="12"/>
@@ -12308,7 +12304,7 @@
     </row>
     <row r="1533" ht="14.4" spans="1:4">
       <c r="A1533" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1533" s="12" t="s">
         <v>65</v>
@@ -12456,7 +12452,7 @@
     </row>
     <row r="1557" ht="14.4" spans="1:4">
       <c r="A1557" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1557" s="12"/>
       <c r="C1557" s="12"/>
@@ -12662,16 +12658,16 @@
     </row>
     <row r="1591" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1591" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1591" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C1591" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1591" s="12" t="s">
         <v>289</v>
-      </c>
-      <c r="D1591" s="12" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="1592" ht="13.5" customHeight="1" spans="1:4">
@@ -12718,7 +12714,7 @@
     </row>
     <row r="1599" ht="14.4" spans="1:4">
       <c r="A1599" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B1599" s="12" t="s">
         <v>45</v>
@@ -12752,16 +12748,16 @@
     </row>
     <row r="1604" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1604" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B1604" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C1604" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1604" s="12" t="s">
         <v>293</v>
-      </c>
-      <c r="D1604" s="12" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="1605" ht="13.5" customHeight="1" spans="1:4">
@@ -12858,10 +12854,10 @@
     </row>
     <row r="1620" ht="14.4" spans="1:4">
       <c r="A1620" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B1620" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1620" s="12"/>
       <c r="D1620" s="12"/>
@@ -12910,7 +12906,7 @@
     </row>
     <row r="1628" ht="31.5" customHeight="1" spans="1:4">
       <c r="A1628" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B1628" s="11" t="s">
         <v>45</v>
@@ -12920,7 +12916,7 @@
     </row>
     <row r="1629" ht="14.4" spans="1:4">
       <c r="A1629" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B1629" s="12" t="s">
         <v>153</v>
@@ -12984,7 +12980,7 @@
     </row>
     <row r="1639" ht="14.4" spans="1:4">
       <c r="A1639" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B1639" s="12"/>
       <c r="C1639" s="12"/>
@@ -13142,7 +13138,7 @@
     </row>
     <row r="1665" ht="14.4" spans="1:4">
       <c r="A1665" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B1665" s="12"/>
       <c r="C1665" s="12"/>
@@ -13276,7 +13272,7 @@
     </row>
     <row r="1687" ht="14.4" spans="1:4">
       <c r="A1687" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B1687" s="12"/>
       <c r="C1687" s="12"/>
@@ -13398,7 +13394,7 @@
     </row>
     <row r="1707" ht="14.4" spans="1:4">
       <c r="A1707" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1707" s="12" t="s">
         <v>55</v>
@@ -13462,7 +13458,7 @@
     </row>
     <row r="1717" spans="1:4">
       <c r="A1717" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1717" s="11" t="s">
         <v>153</v>
@@ -13472,10 +13468,10 @@
     </row>
     <row r="1718" ht="14.4" spans="1:4">
       <c r="A1718" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1718" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1718" s="12"/>
       <c r="D1718" s="12"/>
@@ -13500,7 +13496,7 @@
     </row>
     <row r="1722" ht="14.4" spans="1:4">
       <c r="A1722" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1722" s="12" t="s">
         <v>65</v>
@@ -13570,7 +13566,7 @@
     </row>
     <row r="1733" ht="14.4" spans="1:4">
       <c r="A1733" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1733" s="12" t="s">
         <v>135</v>
@@ -13610,7 +13606,7 @@
     </row>
     <row r="1739" ht="14.4" spans="1:4">
       <c r="A1739" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B1739" s="12"/>
       <c r="C1739" s="12"/>
@@ -13642,7 +13638,7 @@
     </row>
     <row r="1744" ht="14.4" spans="1:4">
       <c r="A1744" s="16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B1744" s="12" t="s">
         <v>153</v>
@@ -13676,7 +13672,7 @@
     </row>
     <row r="1749" ht="14.4" spans="1:4">
       <c r="A1749" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B1749" s="12" t="s">
         <v>65</v>
